--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henryvecchione/Desktop/Home/myboathouse2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B693D17C-39C0-E041-A940-0AE7CD99B6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8B2DC-5E6D-7048-8274-B6713D6B3636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,6 +88,15 @@
     <t>gorvy</t>
   </si>
   <si>
+    <t>r 24</t>
+  </si>
+  <si>
+    <t>r30</t>
+  </si>
+  <si>
+    <t>r32</t>
+  </si>
+  <si>
     <t>6000m</t>
   </si>
   <si>
@@ -95,15 +104,6 @@
   </si>
   <si>
     <t>2000m</t>
-  </si>
-  <si>
-    <t>r 24</t>
-  </si>
-  <si>
-    <t>r30</t>
-  </si>
-  <si>
-    <t>r32</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -525,13 +525,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henryvecchione/Desktop/Home/myboathouse2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8B2DC-5E6D-7048-8274-B6713D6B3636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BA6057-9384-FD4E-BB67-EA2C0FD2EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22500" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>MyBoathouse</t>
   </si>
@@ -95,21 +95,15 @@
   </si>
   <si>
     <t>r32</t>
-  </si>
-  <si>
-    <t>6000m</t>
-  </si>
-  <si>
-    <t>4000m</t>
-  </si>
-  <si>
-    <t>2000m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,10 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,12 +489,13 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -507,14 +505,14 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
+      <c r="C1" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -553,8 +551,8 @@
       <c r="C4" s="2">
         <v>0.7909722222222223</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.5</v>
+      <c r="D4" s="3">
+        <v>1234</v>
       </c>
       <c r="E4" s="2">
         <v>0.24930555555555556</v>
@@ -571,8 +569,8 @@
       <c r="C5" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.58333333333333337</v>
+      <c r="D5" s="3">
+        <v>5678</v>
       </c>
       <c r="E5" s="2">
         <v>0.26666666666666666</v>
@@ -589,8 +587,8 @@
       <c r="C6" s="2">
         <v>0.84166666666666667</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.625</v>
+      <c r="D6" s="3">
+        <v>9101</v>
       </c>
       <c r="E6" s="2">
         <v>0.25972222222222224</v>
@@ -607,8 +605,8 @@
       <c r="C7" s="2">
         <v>0.8340277777777777</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.54166666666666663</v>
+      <c r="D7" s="3">
+        <v>1112</v>
       </c>
       <c r="E7" s="2">
         <v>0.24166666666666667</v>
